--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -736,10 +748,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -783,28 +795,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -829,28 +841,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -985,28 +997,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1031,28 +1043,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1111,10 +1123,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1158,28 +1170,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1204,28 +1216,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1284,10 +1296,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1331,28 +1343,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1377,28 +1389,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1486,10 +1498,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1533,28 +1545,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1579,28 +1591,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1861,10 +1873,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1908,28 +1920,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1954,28 +1966,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2063,10 +2075,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2110,28 +2122,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2156,28 +2168,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2236,10 +2248,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2283,28 +2295,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2329,28 +2341,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2409,10 +2421,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2456,28 +2468,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2502,28 +2514,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2582,10 +2594,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2629,28 +2641,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2675,28 +2687,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2784,10 +2796,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2831,28 +2843,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2877,28 +2889,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2957,10 +2969,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3004,28 +3016,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3050,28 +3062,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3130,10 +3142,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3177,28 +3189,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3223,28 +3235,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3303,10 +3315,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3350,28 +3362,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3396,28 +3408,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3476,10 +3488,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3523,28 +3535,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3569,28 +3581,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3736,10 +3748,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3783,28 +3795,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3829,28 +3841,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3938,10 +3950,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3985,28 +3997,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4031,28 +4043,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4169,10 +4181,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4216,28 +4228,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4262,28 +4274,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4342,10 +4354,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4389,28 +4401,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4435,28 +4447,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4515,10 +4527,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4562,28 +4574,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4608,28 +4620,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4717,10 +4729,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4764,28 +4776,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4810,28 +4822,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4919,10 +4931,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4966,28 +4978,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5012,28 +5024,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5092,10 +5104,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5139,28 +5151,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5185,28 +5197,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5294,10 +5306,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5341,28 +5353,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5387,28 +5399,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5496,10 +5508,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5543,28 +5555,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5589,28 +5601,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5698,10 +5710,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5745,28 +5757,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5791,28 +5803,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5871,10 +5883,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5918,28 +5930,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5964,28 +5976,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6247,10 +6259,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6294,28 +6306,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6340,28 +6352,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6449,10 +6461,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6496,28 +6508,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6542,28 +6554,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6622,10 +6634,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6669,28 +6681,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6715,28 +6727,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6795,10 +6807,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6842,28 +6854,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6888,28 +6900,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6997,10 +7009,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7044,28 +7056,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7090,28 +7102,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7170,10 +7182,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7217,28 +7229,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7263,28 +7275,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7343,10 +7355,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7390,28 +7402,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7436,28 +7448,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7574,10 +7586,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7621,28 +7633,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7667,28 +7679,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7747,10 +7759,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7794,28 +7806,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7840,28 +7852,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7920,10 +7932,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7967,28 +7979,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8013,28 +8025,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8093,10 +8105,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8140,28 +8152,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8186,28 +8198,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8295,10 +8307,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8342,28 +8354,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8388,28 +8400,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8468,10 +8480,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8515,28 +8527,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8561,28 +8573,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8641,10 +8653,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8688,28 +8700,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8734,28 +8746,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8814,10 +8826,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8861,28 +8873,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8907,28 +8919,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8987,10 +8999,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9034,28 +9046,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9080,28 +9092,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9189,10 +9201,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9236,28 +9248,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9282,28 +9294,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9362,10 +9374,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9409,28 +9421,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9455,28 +9467,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9564,10 +9576,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9611,28 +9623,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9657,28 +9669,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9737,10 +9749,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9784,28 +9796,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9830,28 +9842,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9939,10 +9951,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9986,28 +9998,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10032,28 +10044,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10112,10 +10124,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10159,28 +10171,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10205,28 +10217,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10314,10 +10326,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10361,28 +10373,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10407,28 +10419,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10487,10 +10499,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10534,28 +10546,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10580,28 +10592,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10660,10 +10672,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10707,28 +10719,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10753,28 +10765,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10833,10 +10845,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10880,28 +10892,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="2">
+      <c r="A373" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="2">
+      <c r="C373" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10926,28 +10938,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="2">
+      <c r="C375" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="2">
+      <c r="D375" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="2">
+      <c r="I375" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11006,10 +11018,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="2" t="s">
+      <c r="J377" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11053,28 +11065,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="2">
+      <c r="A379" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="2">
+      <c r="C379" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11099,28 +11111,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="2">
+      <c r="C381" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="2">
+      <c r="D381" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="2">
+      <c r="I381" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11179,10 +11191,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="2" t="s">
+      <c r="J383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11226,28 +11238,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="2">
+      <c r="A385" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="2">
+      <c r="C385" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11272,28 +11284,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="2">
+      <c r="C387" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="2">
+      <c r="D387" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="2">
+      <c r="I387" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11381,10 +11393,10 @@
       <c r="I390">
         <f>((C390-C389)^2+(D390- D389)^2)^.5</f>
       </c>
-      <c r="J390" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K390" s="2" t="s">
+      <c r="J390" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K390" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L390" t="n">
@@ -11428,28 +11440,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="s" s="2">
+      <c r="A392" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C392" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D392" t="s" s="2">
+      <c r="C392" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D392" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11474,28 +11486,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C394" t="s" s="2">
+      <c r="C394" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D394" t="s" s="2">
+      <c r="D394" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I394" t="s" s="2">
+      <c r="I394" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11554,10 +11566,10 @@
       <c r="I396">
         <f>((C396-C395)^2+(D396- D395)^2)^.5</f>
       </c>
-      <c r="J396" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K396" s="2" t="s">
+      <c r="J396" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K396" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L396" t="n">
@@ -11601,28 +11613,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="s" s="2">
+      <c r="A398" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C398" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D398" t="s" s="2">
+      <c r="C398" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D398" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11647,28 +11659,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="B400" t="s" s="2">
+      <c r="B400" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C400" t="s" s="2">
+      <c r="C400" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D400" t="s" s="2">
+      <c r="D400" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E400" t="s" s="2">
+      <c r="E400" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F400" t="s" s="2">
+      <c r="F400" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G400" t="s" s="2">
+      <c r="G400" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H400" t="s" s="2">
+      <c r="H400" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I400" t="s" s="2">
+      <c r="I400" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11727,10 +11739,10 @@
       <c r="I402">
         <f>((C402-C401)^2+(D402- D401)^2)^.5</f>
       </c>
-      <c r="J402" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K402" s="2" t="s">
+      <c r="J402" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K402" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L402" t="n">
@@ -11774,28 +11786,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="s" s="2">
+      <c r="A404" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C404" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s" s="2">
+      <c r="C404" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11820,28 +11832,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="B406" t="s" s="2">
+      <c r="B406" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C406" t="s" s="2">
+      <c r="C406" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D406" t="s" s="2">
+      <c r="D406" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E406" t="s" s="2">
+      <c r="E406" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F406" t="s" s="2">
+      <c r="F406" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G406" t="s" s="2">
+      <c r="G406" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H406" t="s" s="2">
+      <c r="H406" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I406" t="s" s="2">
+      <c r="I406" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11900,10 +11912,10 @@
       <c r="I408">
         <f>((C408-C407)^2+(D408- D407)^2)^.5</f>
       </c>
-      <c r="J408" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K408" s="2" t="s">
+      <c r="J408" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K408" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L408" t="n">
@@ -11947,28 +11959,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="s" s="2">
+      <c r="A410" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B410" t="s" s="2">
+      <c r="B410" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C410" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D410" t="s" s="2">
+      <c r="C410" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D410" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E410" t="s" s="2">
+      <c r="E410" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F410" t="s" s="2">
+      <c r="F410" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G410" t="s" s="2">
+      <c r="G410" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H410" t="s" s="2">
+      <c r="H410" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11993,28 +12005,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="B412" t="s" s="2">
+      <c r="B412" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C412" t="s" s="2">
+      <c r="C412" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D412" t="s" s="2">
+      <c r="D412" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E412" t="s" s="2">
+      <c r="E412" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F412" t="s" s="2">
+      <c r="F412" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G412" t="s" s="2">
+      <c r="G412" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H412" t="s" s="2">
+      <c r="H412" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I412" t="s" s="2">
+      <c r="I412" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12102,10 +12114,10 @@
       <c r="I415">
         <f>((C415-C414)^2+(D415- D414)^2)^.5</f>
       </c>
-      <c r="J415" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K415" s="2" t="s">
+      <c r="J415" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K415" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L415" t="n">
@@ -12149,28 +12161,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="2">
+      <c r="A417" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B417" t="s" s="2">
+      <c r="B417" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C417" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D417" t="s" s="2">
+      <c r="C417" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E417" t="s" s="2">
+      <c r="E417" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F417" t="s" s="2">
+      <c r="F417" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G417" t="s" s="2">
+      <c r="G417" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H417" t="s" s="2">
+      <c r="H417" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12195,28 +12207,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="B419" t="s" s="2">
+      <c r="B419" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C419" t="s" s="2">
+      <c r="C419" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D419" t="s" s="2">
+      <c r="D419" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E419" t="s" s="2">
+      <c r="E419" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F419" t="s" s="2">
+      <c r="F419" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G419" t="s" s="2">
+      <c r="G419" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H419" t="s" s="2">
+      <c r="H419" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I419" t="s" s="2">
+      <c r="I419" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12275,10 +12287,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="2" t="s">
+      <c r="J421" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">
